--- a/Gestión citas con organismos.xlsx
+++ b/Gestión citas con organismos.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Citas Concertadas" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Citas Concertadas'!$A$1:$U$61</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Citas Concertadas'!$A$1:$U$62</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="171">
   <si>
     <t>Organismo</t>
   </si>
@@ -33,24 +33,8 @@
     <t>Otros</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Agencia Estatal de Administración Tributaria (AEAT)
-DELEGACION CENTRAL DE GRANDES CONTRIBUYENTE</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>S</t>
-    </r>
+    <t>Agencia Estatal de Administración Tributaria (AEAT)
+DELEGACION CENTRAL DE GRANDES CONTRIBUYENTES</t>
   </si>
   <si>
     <t>jdgmr.dcgc@correo.aeat.es
@@ -146,25 +130,49 @@
     </r>
   </si>
   <si>
+    <t>Contactados. Está complicada la entrevista.</t>
+  </si>
+  <si>
     <t>gestion.personalfuncionario@ine.es
 secretariageneral@ine.es
 joseluis.maldonado.cecilia@ine.es</t>
   </si>
   <si>
-    <t>Ministerio de Agricultura, Pesca y Alimentación</t>
-  </si>
-  <si>
-    <t>Entrevista Martes 19 de Abril a las 16:00</t>
-  </si>
-  <si>
-    <t>secretariainformatica@mapa.es</t>
+    <t>4 plazas</t>
   </si>
   <si>
     <t>Ministerio de Agricultura, Pesca y Alimentación
 Fondo Español de Garantía Agraria (FEGA)</t>
   </si>
   <si>
+    <t>Contactados. Han enviado plantilla rellena y dejan a nuestro criterio hacer la entrevista o no</t>
+  </si>
+  <si>
     <t>informatica@fega.es</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Ministerio de Agricultura, Pesca y Alimentación
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>SUB. GRAL. TECNOLOGÍAS DE LA INFORMACIÓN Y DE LAS COMUNICACIONES</t>
+    </r>
+  </si>
+  <si>
+    <t>secretariainformatica@mapa.es</t>
   </si>
   <si>
     <r>
@@ -211,7 +219,23 @@
     </r>
   </si>
   <si>
+    <t>No habrá entrevista</t>
+  </si>
+  <si>
     <t>SGIT-secretaria@economia.gob.es</t>
+  </si>
+  <si>
+    <t>No va a haber plazas</t>
+  </si>
+  <si>
+    <t>Ministerio de Asuntos Económicos y Transformación Digital (MINECO)
+Jefatura Provincial de Inspección de Telecomunicaciones de Madrid</t>
+  </si>
+  <si>
+    <t>JPmadrid@economia.gob.es</t>
+  </si>
+  <si>
+    <t>1 plaza</t>
   </si>
   <si>
     <r>
@@ -315,9 +339,6 @@
 INSTITUTO SALUD CARLOS III</t>
   </si>
   <si>
-    <t>Entrevista Miércoles 20 de Abril a las 11:30</t>
-  </si>
-  <si>
     <t>91 822 2764/66</t>
   </si>
   <si>
@@ -357,10 +378,34 @@
     </r>
   </si>
   <si>
+    <t>Entrevista Miércoles 27 de Abril a las 10:30</t>
+  </si>
+  <si>
     <t>dtsi@consumo.gob.es</t>
   </si>
   <si>
-    <t>Ministerio de Cultura y Deporte</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Ministerio de Cultura y Deporte
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>División de Tecnologías de la Información</t>
+    </r>
+  </si>
+  <si>
+    <t>Entrevista Viernes 29 de Abril a las 9:30</t>
   </si>
   <si>
     <t>jignacio.agulleiro@cultura.gob.es</t>
@@ -384,9 +429,6 @@
       </rPr>
       <t xml:space="preserve">Departamento de personales </t>
     </r>
-  </si>
-  <si>
-    <t>Entrevista Miércoles 20 de Abril a las 12:30</t>
   </si>
   <si>
     <t>migldie@et.mde.es</t>
@@ -413,7 +455,25 @@
     </r>
   </si>
   <si>
-    <t>Entrevista Jueves 21 de Abril a las 12:30</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">Entrevista Jueves 21 de Abril a las 12:30
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Número de reunión: 2742 926 8816
+Contraseña: hKZJvpDZ735</t>
+    </r>
   </si>
   <si>
     <t>dtic@vpsocial.gob.es
@@ -462,10 +522,47 @@
     </r>
   </si>
   <si>
-    <t>Entrevista Viernes 22 de Abril a las 9:30</t>
+    <t xml:space="preserve">Entrevista Viernes 22 de Abril a las 9:30                                                                       </t>
   </si>
   <si>
-    <t>miguel.ancochea@catastro.hacienda.gob.es</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">ID de reunión: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>842 8475 3058</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+Código de acceso: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>722786</t>
+    </r>
+  </si>
+  <si>
+    <t>miguel.ancochea@catastro.hacienda.gob.es  sonia.cascales@catastro.hacienda.gob.es</t>
   </si>
   <si>
     <t>@Esp8202</t>
@@ -517,8 +614,7 @@
 josea.navarro@muface.es</t>
   </si>
   <si>
-    <t>Ministerio de Hacienda y Función Pública
-PATRIMONIO DEL ESTADO S.G. DE COORDINAC. CONTRATAC. ELECTRON.</t>
+    <t>2 plazas, una de ellas en provincia sin definir</t>
   </si>
   <si>
     <t>Ministerio de Hacienda y Función Pública
@@ -577,8 +673,37 @@
 Jesus Lopez Mora Subdirector General TIC</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Ministerio de Hacienda y Función Pública</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+Subdirección General de Servicios Web, Transparencia y Protección de Datos</t>
+    </r>
+  </si>
+  <si>
+    <t>Entrevista Jueves 21 de Abril a las 11:00</t>
+  </si>
+  <si>
+    <t>mjose.demariano.sanchez-jauregui@hacienda.gob.es</t>
+  </si>
+  <si>
     <t>Ministerio de Hacienda y Función Pública
 TRIBUNAL ECONOMICO ADMINISTRATIVO CENTRAL (TEAC)</t>
+  </si>
+  <si>
+    <t>Entrevista Lunes 25 de Abril a las 13:30</t>
   </si>
   <si>
     <t>subdirector: pablo.perez@teac.hacienda.gob.es</t>
@@ -594,7 +719,7 @@
 Gerencia de Informática de la Seguridad Social (GISS)</t>
   </si>
   <si>
-    <t>Entrevista Jueves 21 de Abril a las 11:00</t>
+    <t>Entrevista Viernes 22 de Abril a las 11:00</t>
   </si>
   <si>
     <t>amaia.familiar@seg-social.es</t>
@@ -647,9 +772,6 @@
     </r>
   </si>
   <si>
-    <t>Entrevista Martes 19 de Abril a las 11:00</t>
-  </si>
-  <si>
     <t>secresgtic@mincotur.es</t>
   </si>
   <si>
@@ -679,9 +801,6 @@
       </rPr>
       <t>División de Tecnologías y Servicios Públicos Digitales</t>
     </r>
-  </si>
-  <si>
-    <t>Entrevista Lunes 18 de Abril a las 11:30</t>
   </si>
   <si>
     <t>secretaria.dtic@mjusticia.es</t>
@@ -718,12 +837,13 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
-Nuevas tecnologías</t>
+Nuevas tecnologías (2 Subdirecciones)
+Calle Ocaña</t>
     </r>
   </si>
   <si>
-    <t>Javier Hernández, Jefe de la Dirección General de Desarrollo.
-Fermín Navarro fermin.navarro@mju.es</t>
+    <t>Javier Hernández, Subdirector Desarrollo
+Fermín Navarro fermin.navarro@mju.es Subdirector Sistemas</t>
   </si>
   <si>
     <t>Ministerio de la Presidencia, Relaciones con las Cortes y Memoria Democrática de España</t>
@@ -746,9 +866,15 @@
 Agencia Estatal Boletín Oficial del Estado (A.G. BOE)</t>
   </si>
   <si>
+    <t>Entrevista Martes 26 de Abril a las 12:00</t>
+  </si>
+  <si>
     <t>lola.martin@boe.es
 María Dolores Martín Sánchez
 Subdirectora Adjunta del Departamento de Tecnologías de la Información</t>
+  </si>
+  <si>
+    <t>En principio solo ofertan una plaza para sistemas</t>
   </si>
   <si>
     <r>
@@ -896,9 +1022,6 @@
     </r>
   </si>
   <si>
-    <t>Entrevista Miércoles 20 de Abril a las 16:30</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -940,10 +1063,13 @@
     </r>
   </si>
   <si>
-    <t>Después de semana santa</t>
+    <t>Entrevista Lunes 25 de Abril a las 10:45</t>
   </si>
   <si>
     <t>buzon.sgtic@sepe.es</t>
+  </si>
+  <si>
+    <t>9 plazas todas en Madrid</t>
   </si>
   <si>
     <t>Ministerio de Transportes, Movilidad y Agenda Urbana
@@ -1084,20 +1210,27 @@
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Patrimonio Nacional</t>
+      <t xml:space="preserve">Patrimonio Nacional
+</t>
     </r>
     <r>
       <rPr>
         <rFont val="Calibri"/>
+        <b val="0"/>
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">
-CONSEJO DE ADMINISTRACION DEL PATRIMONIO NACIONAL</t>
+      <t>CONSEJO DE ADMINISTRACION DEL PATRIMONIO NACIONAL</t>
     </r>
   </si>
   <si>
-    <t>info@patrimonionacional.es
+    <t>Ester Niclós 914548778
+Enrique Fernández 914548776</t>
+  </si>
+  <si>
+    <t>ester.niclos@patrimonionacional.es (Coordinadora de informática y comunicaciones)
+enrique.fernandez@patrimonionacional.es (Jefe de microinformática)
+info@patrimonionacional.es
 registro.general@patrimonionacional.es</t>
   </si>
   <si>
@@ -1115,7 +1248,7 @@
     <numFmt numFmtId="164" formatCode="D/M/YYYY\ H:MM:SS"/>
     <numFmt numFmtId="165" formatCode="D/MM/YYYY\ H:MM:SS"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -1146,14 +1279,14 @@
     <font>
       <u/>
       <sz val="11.0"/>
-      <color rgb="FF1155CC"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
     </font>
     <font>
       <u/>
       <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u/>
@@ -1166,6 +1299,12 @@
       <sz val="11.0"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -1224,7 +1363,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1237,17 +1376,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1256,13 +1395,13 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1271,6 +1410,9 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1282,7 +1424,7 @@
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1506,7 +1648,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="39.43"/>
     <col customWidth="1" min="2" max="2" width="50.86"/>
-    <col customWidth="1" min="3" max="3" width="13.43"/>
+    <col customWidth="1" min="3" max="3" width="28.14"/>
     <col customWidth="1" min="4" max="4" width="34.29"/>
     <col customWidth="1" min="5" max="5" width="23.43"/>
     <col customWidth="1" min="6" max="6" width="143.14"/>
@@ -1557,59 +1699,59 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-    </row>
-    <row r="3" ht="90.0" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+    </row>
+    <row r="3" ht="75.0" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+    </row>
+    <row r="4" ht="24.75" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5"/>
@@ -1617,28 +1759,28 @@
       <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1648,1756 +1790,1808 @@
       <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="F6" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" ht="60.0" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" ht="56.25" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-    </row>
-    <row r="8" ht="56.25" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>26</v>
+      <c r="A9" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5"/>
+      <c r="A10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-    </row>
-    <row r="11">
+      <c r="F10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" ht="54.0" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5">
-        <v>9.16037832E8</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-    </row>
-    <row r="12" ht="21.0" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>32</v>
+      <c r="F11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="C12" s="5">
+        <v>9.16037832E8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" ht="60.75" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="5"/>
+      <c r="A16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="C16" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-    </row>
-    <row r="18" ht="44.25" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+    </row>
+    <row r="19" ht="44.25" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+    </row>
+    <row r="20" ht="35.25" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5">
+        <v>9.13954849E8</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="5">
-        <v>9.13954849E8</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="D21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+    </row>
+    <row r="22" ht="73.5" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-    </row>
-    <row r="21" ht="73.5" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+    </row>
+    <row r="23" ht="34.5" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="F23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+    </row>
+    <row r="24" ht="73.5" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+    </row>
+    <row r="25" ht="45.0" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="5">
+        <v>9.15202991E8</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-    </row>
-    <row r="23" ht="21.75" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-    </row>
-    <row r="24" ht="45.0" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="5">
-        <v>9.15202991E8</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-    </row>
-    <row r="26" ht="33.75" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>75</v>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+    </row>
+    <row r="27" ht="33.75" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="17" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="17" t="s">
+      <c r="F28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-    </row>
-    <row r="29" ht="38.25" customHeight="1">
-      <c r="A29" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="16"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
     </row>
     <row r="31" ht="53.25" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>83</v>
+      <c r="A31" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>85</v>
+      <c r="A32" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="D32" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
     </row>
     <row r="33" ht="44.25" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="5"/>
+      <c r="A33" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="D33" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-    </row>
-    <row r="34" ht="47.25" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-    </row>
-    <row r="35" ht="43.5" customHeight="1">
-      <c r="A35" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="5">
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+    </row>
+    <row r="34" ht="44.25" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+    </row>
+    <row r="35" ht="112.5" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+    </row>
+    <row r="36" ht="61.5" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="5">
         <v>9.13903075E8</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="D36" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="8" t="s">
+      <c r="F36" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+    </row>
+    <row r="37" ht="57.0" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C37" s="5">
         <v>9.13630015E8</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="D37" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-    </row>
-    <row r="38" ht="43.5" customHeight="1">
-      <c r="A38" s="7" t="s">
-        <v>100</v>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-    </row>
-    <row r="39" ht="43.5" customHeight="1">
-      <c r="A39" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="5">
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+    </row>
+    <row r="40" ht="43.5" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="5">
         <v>9.1838888E8</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="D40" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+    </row>
+    <row r="41" ht="43.5" customHeight="1">
+      <c r="A41" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-    </row>
-    <row r="41" ht="62.25" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-    </row>
-    <row r="42" ht="29.25" customHeight="1">
-      <c r="A42" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="4" t="s">
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+    </row>
+    <row r="43" ht="66.75" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-    </row>
-    <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+    </row>
+    <row r="44" ht="29.25" customHeight="1">
+      <c r="A44" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="8" t="s">
+      <c r="F44" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+    </row>
+    <row r="45" ht="75.75" customHeight="1">
+      <c r="A45" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C45" s="5">
         <v>9.12739E8</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" s="4" t="s">
+      <c r="D45" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-    </row>
-    <row r="45" ht="73.5" customHeight="1">
-      <c r="A45" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-    </row>
-    <row r="46" ht="32.25" customHeight="1">
-      <c r="A46" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" s="4"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+    </row>
+    <row r="46" ht="64.5" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>133</v>
+      </c>
       <c r="C46" s="5"/>
       <c r="D46" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E46" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-    </row>
-    <row r="47" ht="45.75" customHeight="1">
-      <c r="A47" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B47" s="4"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+    </row>
+    <row r="47" ht="60.75" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="6"/>
       <c r="C47" s="5"/>
       <c r="D47" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E47" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-    </row>
-    <row r="48" ht="45.75" customHeight="1">
-      <c r="A48" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>128</v>
-      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+    </row>
+    <row r="48" ht="62.25" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="6"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="D48" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-    </row>
-    <row r="49" ht="73.5" customHeight="1">
-      <c r="A49" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>131</v>
+      <c r="F48" s="10"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+    </row>
+    <row r="49" ht="60.75" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="D49" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-    </row>
-    <row r="50" ht="30.75" customHeight="1">
-      <c r="A50" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>134</v>
+      <c r="F49" s="10"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+    </row>
+    <row r="50" ht="88.5" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="D50" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-    </row>
-    <row r="51" ht="43.5" customHeight="1">
-      <c r="A51" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B51" s="5"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+    </row>
+    <row r="51" ht="73.5" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E51" s="4" t="s">
+      <c r="D51" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+    </row>
+    <row r="52" ht="60.0" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-    </row>
-    <row r="52" ht="41.25" customHeight="1">
-      <c r="A52" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="7" t="s">
-        <v>140</v>
+      <c r="F52" s="6"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+    </row>
+    <row r="53" ht="43.5" customHeight="1">
+      <c r="A53" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+      <c r="F53" s="6"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+    </row>
+    <row r="54" ht="41.25" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="4">
+        <v>152</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6">
         <v>9.12653407E8</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-    </row>
-    <row r="55" ht="29.25" customHeight="1">
-      <c r="A55" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" s="8" t="s">
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-    </row>
-    <row r="56" ht="15.0" customHeight="1">
-      <c r="A56" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E56" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-    </row>
-    <row r="57" ht="60.75" customHeight="1">
-      <c r="A57" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B57" s="8"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+    </row>
+    <row r="57" ht="29.25" customHeight="1">
+      <c r="A57" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E57" s="4" t="s">
+      <c r="D57" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+    </row>
+    <row r="58" ht="51.0" customHeight="1">
+      <c r="A58" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>17</v>
+      <c r="F58" s="6"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+    </row>
+    <row r="59" ht="60.75" customHeight="1">
+      <c r="A59" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E59" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-    </row>
-    <row r="60" ht="49.5" customHeight="1">
+      <c r="F59" s="6"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B60" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E60" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+    </row>
+    <row r="62" ht="49.5" customHeight="1">
+      <c r="A62" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-    </row>
-    <row r="61" ht="49.5" customHeight="1">
-      <c r="A61" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
@@ -24973,27 +25167,50 @@
       <c r="T1000" s="3"/>
       <c r="U1000" s="3"/>
     </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="A1001" s="3"/>
+      <c r="B1001" s="3"/>
+      <c r="C1001" s="3"/>
+      <c r="D1001" s="3"/>
+      <c r="E1001" s="3"/>
+      <c r="F1001" s="3"/>
+      <c r="G1001" s="3"/>
+      <c r="H1001" s="3"/>
+      <c r="I1001" s="3"/>
+      <c r="J1001" s="3"/>
+      <c r="K1001" s="3"/>
+      <c r="L1001" s="3"/>
+      <c r="M1001" s="3"/>
+      <c r="N1001" s="3"/>
+      <c r="O1001" s="3"/>
+      <c r="P1001" s="3"/>
+      <c r="Q1001" s="3"/>
+      <c r="R1001" s="3"/>
+      <c r="S1001" s="3"/>
+      <c r="T1001" s="3"/>
+      <c r="U1001" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$U$61">
-    <sortState ref="A1:U61">
-      <sortCondition ref="A1:A61"/>
-      <sortCondition ref="E1:E61"/>
-      <sortCondition ref="B1:B61"/>
+  <autoFilter ref="$A$1:$U$62">
+    <sortState ref="A1:U62">
+      <sortCondition ref="A1:A62"/>
+      <sortCondition ref="E1:E62"/>
+      <sortCondition ref="B1:B62"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B7"/>
-    <hyperlink r:id="rId2" ref="B15"/>
-    <hyperlink r:id="rId3" ref="D17"/>
-    <hyperlink r:id="rId4" ref="B35"/>
-    <hyperlink r:id="rId5" ref="B37"/>
-    <hyperlink r:id="rId6" ref="B39"/>
-    <hyperlink r:id="rId7" ref="B41"/>
-    <hyperlink r:id="rId8" ref="B45"/>
-    <hyperlink r:id="rId9" ref="D45"/>
-    <hyperlink r:id="rId10" ref="D46"/>
-    <hyperlink r:id="rId11" ref="D47"/>
-    <hyperlink r:id="rId12" ref="B49"/>
+    <hyperlink r:id="rId1" ref="B18"/>
+    <hyperlink r:id="rId2" ref="D18"/>
+    <hyperlink r:id="rId3" ref="B19"/>
+    <hyperlink r:id="rId4" ref="B21"/>
+    <hyperlink r:id="rId5" ref="B24"/>
+    <hyperlink r:id="rId6" ref="B33"/>
+    <hyperlink r:id="rId7" ref="B36"/>
+    <hyperlink r:id="rId8" ref="B46"/>
+    <hyperlink r:id="rId9" ref="D46"/>
+    <hyperlink r:id="rId10" ref="D47"/>
+    <hyperlink r:id="rId11" ref="D48"/>
+    <hyperlink r:id="rId12" ref="B51"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
